--- a/raspberry/docs/Calcolo BETA ntc.xlsx
+++ b/raspberry/docs/Calcolo BETA ntc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DriveD\play\caldaia\raspberry\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7FF55B7-E5C1-4D82-8C8B-9AD7C6D22634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6CFE48-8A0B-4997-894B-CA9E8481D116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18585" yWindow="4590" windowWidth="21600" windowHeight="11385" xr2:uid="{3C73356A-C8E3-4BBE-A6C3-630BF1E86F1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C73356A-C8E3-4BBE-A6C3-630BF1E86F1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>T</t>
   </si>
@@ -63,6 +55,12 @@
   </si>
   <si>
     <t>RAND</t>
+  </si>
+  <si>
+    <t>Misura effettuata&gt;</t>
+  </si>
+  <si>
+    <t>Misura compensata</t>
   </si>
 </sst>
 </file>
@@ -423,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0004E564-ACED-4D52-87E0-486CED512701}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +433,7 @@
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -498,7 +496,7 @@
         <v>3327.3564788008739</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>98</v>
       </c>
@@ -527,8 +525,25 @@
         <f>(C3-F3)/G3</f>
         <v>657.32638713266908</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>19771</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>21056</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>21056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -548,7 +563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -566,22 +581,22 @@
       </c>
       <c r="F6">
         <f ca="1">1000+H6</f>
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(-25,25)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <f ca="1">SIGN(G6)*25+G6</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <f ca="1">1-(F6/1000)</f>
-        <v>-3.0000000000000027E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-3.499999999999992E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -599,22 +614,22 @@
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F11" ca="1" si="3">1000+H7</f>
-        <v>1034</v>
+        <v>953</v>
       </c>
       <c r="G7">
         <f t="shared" ref="G7:G14" ca="1" si="4">RANDBETWEEN(-25,25)</f>
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="H7">
         <f t="shared" ref="H7:H14" ca="1" si="5">SIGN(G7)*25+G7</f>
-        <v>34</v>
+        <v>-47</v>
       </c>
       <c r="I7">
         <f t="shared" ref="I7:I11" ca="1" si="6">1-(F7/1000)</f>
-        <v>-3.400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.7000000000000042E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10</v>
       </c>
@@ -632,22 +647,22 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="3"/>
-        <v>1000</v>
+        <v>1048</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.8000000000000043E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>15</v>
       </c>
@@ -665,22 +680,22 @@
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="3"/>
-        <v>959</v>
+        <v>1031</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="4"/>
-        <v>-16</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="5"/>
-        <v>-41</v>
+        <v>31</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-3.0999999999999917E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -698,22 +713,22 @@
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="3"/>
-        <v>959</v>
+        <v>972</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="4"/>
-        <v>-16</v>
+        <v>-3</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="5"/>
-        <v>-41</v>
+        <v>-28</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1000000000000036E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
@@ -731,22 +746,22 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="3"/>
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="4"/>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="6"/>
-        <v>-4.2999999999999927E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-3.499999999999992E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>30</v>
       </c>
@@ -764,22 +779,22 @@
       </c>
       <c r="F12">
         <f t="shared" ref="F12:F14" ca="1" si="7">1000+H12</f>
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="4"/>
-        <v>-21</v>
+        <v>-3</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="5"/>
-        <v>-46</v>
+        <v>-28</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12:I14" ca="1" si="8">1-(F12/1000)</f>
-        <v>4.6000000000000041E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.8000000000000025E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>35</v>
       </c>
@@ -797,22 +812,22 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="7"/>
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8999999999999915E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.8999999999999932E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>40</v>
       </c>
@@ -830,22 +845,22 @@
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="7"/>
-        <v>1050</v>
+        <v>950</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="4"/>
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.0000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>45</v>
       </c>
@@ -863,10 +878,10 @@
       </c>
       <c r="I15">
         <f ca="1">AVERAGE(I6:I14)</f>
-        <v>-6.4444444444444254E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>-4.999999999999955E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50</v>
       </c>
@@ -901,7 +916,7 @@
       </c>
       <c r="F17">
         <f ca="1">1/((1/F6)+(1/F7)+(1/F8))</f>
-        <v>340.36854989741198</v>
+        <v>336.73435123505635</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -922,7 +937,7 @@
       </c>
       <c r="F18">
         <f ca="1">1/((1/F9)+(1/F10)+(1/F11))</f>
-        <v>328.48505747126438</v>
+        <v>337.27697084810052</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +958,7 @@
       </c>
       <c r="F19">
         <f ca="1">1/((1/F12)+(1/F13)+(1/F14))</f>
-        <v>336.42663266984704</v>
+        <v>329.51893094859196</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -964,11 +979,11 @@
       </c>
       <c r="F20">
         <f ca="1">SUM(F17:F19)</f>
-        <v>1005.2802400385235</v>
+        <v>1003.5302530317488</v>
       </c>
       <c r="G20">
         <f ca="1">1-(F20/1000)</f>
-        <v>-5.2802400385234538E-3</v>
+        <v>-3.530253031748698E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,6 +1103,346 @@
       <c r="D27">
         <f t="shared" si="2"/>
         <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>110</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B47" si="9">A28+273.15</f>
+        <v>383.15</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C47" si="10">H$2*EXP(I$2*((1/B28)-(1/B$2)))</f>
+        <v>498.20832602816222</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:D47" si="11">1/((LOG(C28/H$2,EXP(1))/I$2)+(1/B$2))-273.15</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>115</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>388.15</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="10"/>
+        <v>445.47966120339339</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="11"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>393.15</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="10"/>
+        <v>399.46664288839639</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="11"/>
+        <v>120.00000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>125</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>398.15</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="10"/>
+        <v>359.18843324791635</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>130</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>403.15</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="10"/>
+        <v>323.82405288953407</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>135</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>408.15</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="10"/>
+        <v>292.68382718181084</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>135.00000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>140</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="9"/>
+        <v>413.15</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="10"/>
+        <v>265.18635008447387</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="11"/>
+        <v>139.99999999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="9"/>
+        <v>418.15</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="10"/>
+        <v>240.83982336543528</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="11"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="9"/>
+        <v>423.15</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="10"/>
+        <v>219.22688039654491</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="11"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>155</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="9"/>
+        <v>428.15</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="10"/>
+        <v>199.99219661713394</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="11"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>160</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="9"/>
+        <v>433.15</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="10"/>
+        <v>182.83233750404258</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="11"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>165</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="9"/>
+        <v>438.15</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="10"/>
+        <v>167.48741011243209</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="11"/>
+        <v>164.99999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>170</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="9"/>
+        <v>443.15</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="10"/>
+        <v>153.73417390063165</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="11"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>175</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="9"/>
+        <v>448.15</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="10"/>
+        <v>141.38033659885832</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>180</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="9"/>
+        <v>453.15</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="10"/>
+        <v>130.25981583811964</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>179.99999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>185</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="9"/>
+        <v>458.15</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="10"/>
+        <v>120.22879054570033</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>190</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="9"/>
+        <v>463.15</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="10"/>
+        <v>111.16240034662381</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>195</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="9"/>
+        <v>468.15</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="10"/>
+        <v>102.95197838360211</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="11"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>200</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="9"/>
+        <v>473.15</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="10"/>
+        <v>95.5027246164112</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="11"/>
+        <v>200.00000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>205</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="9"/>
+        <v>478.15</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="10"/>
+        <v>88.731743970134403</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="11"/>
+        <v>205.00000000000006</v>
       </c>
     </row>
   </sheetData>
